--- a/Analytics/E1/TeamFirstCard_e1.xlsx
+++ b/Analytics/E1/TeamFirstCard_e1.xlsx
@@ -7,23 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="Hone_and15" r:id="rId3" sheetId="1"/>
-    <sheet name="Hfifteen_and30" r:id="rId4" sheetId="2"/>
-    <sheet name="Hthirty_and45" r:id="rId5" sheetId="3"/>
-    <sheet name="Hfortyfive_and60" r:id="rId6" sheetId="4"/>
-    <sheet name="Hsixty_and75" r:id="rId7" sheetId="5"/>
-    <sheet name="Hseventyfive_tomatchend" r:id="rId8" sheetId="6"/>
-    <sheet name="Aone_and15" r:id="rId9" sheetId="7"/>
-    <sheet name="Afifteen_and30" r:id="rId10" sheetId="8"/>
-    <sheet name="Athirty_and45" r:id="rId11" sheetId="9"/>
-    <sheet name="Afortyfive_and60" r:id="rId12" sheetId="10"/>
-    <sheet name="Asixty_and75" r:id="rId13" sheetId="11"/>
-    <sheet name="Aseventyfive_tomatchend" r:id="rId14" sheetId="12"/>
+    <sheet name="Hfifteen_and46" r:id="rId4" sheetId="2"/>
+    <sheet name="Hfortyfive_and60" r:id="rId5" sheetId="3"/>
+    <sheet name="Hsixty_and75" r:id="rId6" sheetId="4"/>
+    <sheet name="Hseventyfive_tomatchend" r:id="rId7" sheetId="5"/>
+    <sheet name="Aone_and15" r:id="rId8" sheetId="6"/>
+    <sheet name="Afifteen_and46" r:id="rId9" sheetId="7"/>
+    <sheet name="Afortyfive_and60" r:id="rId10" sheetId="8"/>
+    <sheet name="Asixty_and75" r:id="rId11" sheetId="9"/>
+    <sheet name="Aseventyfive_tomatchend" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="51">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -160,19 +158,19 @@
     <t>23</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Ipswich</t>
   </si>
   <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
     <t>Coventry</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -482,10 +480,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -493,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -504,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -515,10 +513,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +524,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -548,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -559,10 +557,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +568,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -581,10 +579,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +590,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -603,10 +601,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -614,10 +612,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -625,10 +623,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +637,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -647,10 +645,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,10 +656,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -672,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +678,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -691,10 +689,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +700,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -713,10 +711,10 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -724,576 +722,15 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -1329,10 +766,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
@@ -1340,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -1351,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
@@ -1362,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
@@ -1373,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
@@ -1387,7 +824,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
@@ -1395,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +843,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -1417,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
@@ -1428,10 +865,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -1439,10 +876,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
@@ -1450,10 +887,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
@@ -1461,10 +898,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
@@ -1472,10 +909,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
@@ -1483,10 +920,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -1494,10 +931,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
@@ -1505,10 +942,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -1516,10 +953,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -1527,10 +964,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -1538,10 +975,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -1549,10 +986,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -1560,10 +997,10 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -1571,10 +1008,21 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -1604,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -1615,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -1626,10 +1074,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -1648,10 +1096,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -1659,10 +1107,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -1670,10 +1118,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -1681,10 +1129,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -1692,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -1703,10 +1151,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -1714,10 +1162,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -1725,10 +1173,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -1736,10 +1184,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -1747,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -1758,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -1769,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -1780,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
         <v>3.0</v>
@@ -1791,7 +1239,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -1802,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
         <v>3.0</v>
@@ -1813,10 +1261,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -1824,7 +1272,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -1835,7 +1283,7 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -1846,7 +1294,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
         <v>2.0</v>
@@ -1854,10 +1302,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C25" t="n">
         <v>2.0</v>
@@ -1890,10 +1338,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -1901,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -1912,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -1923,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -1934,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1945,10 +1393,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -1956,10 +1404,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -1967,10 +1415,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -1978,10 +1426,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -1989,10 +1437,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -2000,10 +1448,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -2011,10 +1459,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -2022,10 +1470,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -2033,10 +1481,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -2044,10 +1492,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -2055,10 +1503,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -2066,10 +1514,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -2077,10 +1525,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -2088,10 +1536,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -2099,10 +1547,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -2110,10 +1558,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -2121,10 +1569,10 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -2132,21 +1580,21 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2176,10 +1624,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +1635,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -2198,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -2209,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -2231,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -2242,7 +1690,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -2253,10 +1701,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -2264,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -2275,10 +1723,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -2286,10 +1734,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -2297,10 +1745,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -2308,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -2319,7 +1767,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -2330,10 +1778,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -2341,10 +1789,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -2352,7 +1800,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -2374,10 +1822,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -2385,7 +1833,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -2396,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -2407,31 +1855,9 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2451,7 +1877,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2462,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2473,10 +1899,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2484,10 +1910,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2495,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -2506,10 +1932,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -2517,10 +1943,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -2528,10 +1954,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -2539,10 +1965,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -2550,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -2561,10 +1987,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -2572,10 +1998,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -2583,10 +2009,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -2594,10 +2020,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -2605,10 +2031,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -2616,10 +2042,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -2627,10 +2053,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -2638,10 +2064,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -2649,10 +2075,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -2660,10 +2086,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2097,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -2682,7 +2108,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -2693,9 +2119,20 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2726,10 +2163,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
@@ -2737,10 +2174,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -2748,10 +2185,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
@@ -2759,10 +2196,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -2770,10 +2207,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
@@ -2781,10 +2218,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -2792,10 +2229,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -2803,10 +2240,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
@@ -2814,10 +2251,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
@@ -2825,10 +2262,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
@@ -2836,10 +2273,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
@@ -2850,7 +2287,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -2861,7 +2298,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
@@ -2869,10 +2306,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -2880,10 +2317,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -2891,10 +2328,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
@@ -2902,10 +2339,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
@@ -2913,10 +2350,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
@@ -2924,10 +2361,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
@@ -2935,10 +2372,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
@@ -2946,10 +2383,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
@@ -2957,10 +2394,10 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
@@ -2968,10 +2405,21 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -3001,10 +2449,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,10 +2460,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +2471,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -3034,10 +2482,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -3045,10 +2493,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -3056,10 +2504,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -3067,10 +2515,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -3078,10 +2526,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -3089,10 +2537,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -3100,10 +2548,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -3111,10 +2559,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -3122,10 +2570,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -3133,10 +2581,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -3144,10 +2592,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -3158,7 +2606,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -3166,10 +2614,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -3177,10 +2625,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -3188,10 +2636,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -3199,10 +2647,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -3210,10 +2658,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -3221,7 +2669,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -3232,7 +2680,7 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -3251,10 +2699,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -3287,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -3298,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -3309,10 +2757,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -3320,10 +2768,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -3331,10 +2779,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -3342,10 +2790,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -3353,10 +2801,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -3364,10 +2812,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -3375,10 +2823,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -3386,10 +2834,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -3397,10 +2845,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -3408,10 +2856,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -3419,10 +2867,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -3430,10 +2878,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -3441,10 +2889,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -3452,10 +2900,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -3463,10 +2911,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -3474,10 +2922,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -3485,10 +2933,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -3496,10 +2944,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -3507,10 +2955,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -3518,10 +2966,10 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -3529,20 +2977,9 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="n">
         <v>2.0</v>
       </c>
     </row>

--- a/Analytics/E1/TeamFirstCard_e1.xlsx
+++ b/Analytics/E1/TeamFirstCard_e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="51">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -68,6 +68,45 @@
     <t>13</t>
   </si>
   <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -89,91 +128,52 @@
     <t>20</t>
   </si>
   <si>
-    <t>Millwall</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Oxford</t>
   </si>
   <si>
     <t>Stoke</t>
   </si>
   <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Southampton</t>
+    <t>Hull</t>
   </si>
   <si>
     <t>Swansea</t>
   </si>
   <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>QPR</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>AwayTeam</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>AwayTeam</t>
   </si>
 </sst>
 </file>
@@ -238,10 +238,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -249,10 +249,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -260,10 +260,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -271,10 +271,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -282,10 +282,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -293,10 +293,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -304,10 +304,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -315,10 +315,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -326,10 +326,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -337,10 +337,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -348,10 +348,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -359,10 +359,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -370,86 +370,9 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -469,7 +392,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -480,10 +403,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -491,10 +414,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -502,10 +425,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +436,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +447,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -538,7 +461,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -546,10 +469,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +480,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -568,10 +491,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -579,10 +502,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -590,10 +513,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -601,10 +524,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -612,130 +535,20 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -766,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -777,10 +590,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -788,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -799,10 +612,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -810,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -821,10 +634,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -832,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -843,10 +656,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -854,10 +667,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -865,10 +678,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -876,10 +689,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -887,10 +700,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -898,131 +711,109 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C19" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1052,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1063,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1074,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1085,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,10 +898,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1118,10 +909,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1129,10 +920,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1140,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -1151,10 +942,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +953,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1173,10 +964,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1184,131 +975,43 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1041,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1349,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1360,10 +1063,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1371,10 +1074,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1382,10 +1085,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1393,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1404,10 +1107,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1415,10 +1118,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1426,10 +1129,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1437,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1459,141 +1162,9 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1624,10 +1195,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1635,10 +1206,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1646,10 +1217,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1657,10 +1228,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1671,7 +1242,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1679,10 +1250,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1690,10 +1261,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1701,10 +1272,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1712,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1723,10 +1294,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1734,10 +1305,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1745,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1756,108 +1327,9 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1877,7 +1349,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1888,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -1899,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1910,10 +1382,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1921,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1932,10 +1404,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1943,10 +1415,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1954,10 +1426,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1965,10 +1437,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1976,10 +1448,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1987,10 +1459,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1998,10 +1470,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -2009,10 +1481,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -2020,51 +1492,51 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2072,67 +1544,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2152,7 +1569,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2163,10 +1580,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -2174,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -2185,10 +1602,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -2196,10 +1613,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -2207,10 +1624,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -2218,10 +1635,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -2229,10 +1646,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -2240,10 +1657,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -2251,10 +1668,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -2262,10 +1679,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -2273,10 +1690,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -2284,10 +1701,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -2295,131 +1712,131 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2438,7 +1855,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2449,10 +1866,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2463,7 +1880,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2471,10 +1888,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2482,10 +1899,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -2493,10 +1910,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -2504,10 +1921,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -2515,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -2526,10 +1943,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -2537,10 +1954,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -2548,10 +1965,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -2559,10 +1976,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -2570,10 +1987,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -2581,130 +1998,75 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2724,7 +2086,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2735,10 +2097,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2746,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2757,10 +2119,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2768,10 +2130,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2779,10 +2141,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2790,10 +2152,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2801,10 +2163,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2812,10 +2174,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -2823,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -2834,10 +2196,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -2845,10 +2207,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -2856,10 +2218,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -2867,120 +2229,32 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/TeamFirstCard_e1.xlsx
+++ b/Analytics/E1/TeamFirstCard_e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="51">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -68,6 +68,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Preston</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>Middlesbrough</t>
   </si>
   <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
     <t>Bristol City</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>Plymouth</t>
   </si>
   <si>
+    <t>Leeds</t>
+  </si>
+  <si>
     <t>QPR</t>
   </si>
   <si>
@@ -104,12 +113,6 @@
     <t>West Brom</t>
   </si>
   <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -140,13 +143,10 @@
     <t>Sheffield United</t>
   </si>
   <si>
+    <t>Burnley</t>
+  </si>
+  <si>
     <t>Derby</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Leeds</t>
   </si>
   <si>
     <t>Norwich</t>
@@ -238,7 +238,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -249,7 +249,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -260,7 +260,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -271,10 +271,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -282,7 +282,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -293,7 +293,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -304,7 +304,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -315,7 +315,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -326,7 +326,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -337,7 +337,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -348,7 +348,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -359,7 +359,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -370,9 +370,20 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -436,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -447,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -458,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -469,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -480,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -491,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -524,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -535,7 +546,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -543,10 +554,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -579,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -590,10 +601,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -601,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -623,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -634,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -645,10 +656,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -667,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -678,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -689,10 +700,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -700,7 +711,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -711,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -719,21 +730,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -741,10 +752,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -752,10 +763,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -763,7 +774,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -774,10 +785,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -785,10 +796,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -796,10 +807,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -807,7 +818,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -854,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -865,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -876,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -898,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -909,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -920,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -942,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -975,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -983,10 +994,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -994,10 +1005,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1005,12 +1016,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1041,10 +1063,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1052,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1063,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1074,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1085,10 +1107,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1107,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1118,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1140,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1195,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -1206,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1217,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1228,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1239,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1250,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1261,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1272,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1283,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1305,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1327,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1382,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1393,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1404,10 +1426,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1415,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1426,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1437,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1459,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1470,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1492,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1500,10 +1522,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1511,10 +1533,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1522,10 +1544,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -1533,10 +1555,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -1544,10 +1566,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1580,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -1591,10 +1613,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -1602,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -1613,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -1624,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1635,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -1646,7 +1668,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -1657,10 +1679,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -1668,7 +1690,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -1679,7 +1701,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -1690,7 +1712,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1701,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -1712,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -1720,10 +1742,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -1731,32 +1753,32 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -1764,32 +1786,32 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -1797,7 +1819,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -1808,10 +1830,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -1869,7 +1891,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1877,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1888,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1899,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1910,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -1921,10 +1943,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -1932,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1954,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -1976,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -1987,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -1998,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -2006,10 +2028,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -2017,7 +2039,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -2028,10 +2050,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -2039,10 +2061,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2050,10 +2072,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -2061,12 +2083,23 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2097,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -2108,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -2119,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -2174,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -2185,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -2196,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -2207,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -2218,7 +2251,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -2237,10 +2270,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -2248,12 +2281,34 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
